--- a/model/equilibrim_intitial_conditions.xlsx
+++ b/model/equilibrim_intitial_conditions.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8223e8c81818e4a8/Edmundo-ITESM/3.Proyectos/63. Looking Back to Look Forward/looking_back_to_look_forward/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E8754D-71F0-DD46-B3B5-3478BC2C3889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{E1E8754D-71F0-DD46-B3B5-3478BC2C3889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C138C4AB-8028-CC4C-9C7E-CED71DB1500D}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="3180" windowWidth="28040" windowHeight="13560" xr2:uid="{385F7BD4-D597-5949-BC0F-DFC565ADF980}"/>
+    <workbookView xWindow="1900" yWindow="1040" windowWidth="15740" windowHeight="16540" xr2:uid="{385F7BD4-D597-5949-BC0F-DFC565ADF980}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -123,12 +123,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,11 +149,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -163,6 +171,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC17B731-1E3D-9148-9D4B-9F9C998278BD}">
   <dimension ref="A3:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,13 +522,13 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="U6" t="s">
@@ -528,7 +540,7 @@
       <c r="W6" t="s">
         <v>7</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y6" t="s">
@@ -540,7 +552,7 @@
       <c r="AA6" t="s">
         <v>7</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AC6" t="s">
@@ -548,35 +560,35 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B7">
+      <c r="B7" s="5">
         <v>0.15</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="T7">
-        <v>0.1</v>
+      <c r="T7" s="5">
+        <v>0.05</v>
       </c>
       <c r="U7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <v>1</v>
       </c>
-      <c r="X7">
-        <v>1.3</v>
+      <c r="X7" s="5">
+        <v>0.08</v>
       </c>
       <c r="Y7">
         <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.1</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0.02</v>
       </c>
       <c r="AC7">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -589,19 +601,19 @@
       </c>
       <c r="S8" s="2">
         <f>+T8+X8+AB8</f>
-        <v>0.15000000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="T8">
         <f>+T7*U7*V7</f>
-        <v>1.0000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="X8">
         <f>+X7*Y7*Z7</f>
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="AB8">
         <f>+AB7*AC7</f>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -634,7 +646,7 @@
       <c r="K11" t="s">
         <v>10</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="U11" t="s">
@@ -643,7 +655,7 @@
       <c r="V11" t="s">
         <v>7</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="X11" t="s">
@@ -652,7 +664,7 @@
       <c r="Y11" t="s">
         <v>7</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Z11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AA11" t="s">
@@ -671,7 +683,7 @@
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="F12">
         <f>+X7</f>
-        <v>1.3</v>
+        <v>0.08</v>
       </c>
       <c r="G12">
         <f t="shared" ref="G12:H12" si="0">+Y7</f>
@@ -679,76 +691,76 @@
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <f>+AB7</f>
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="K12">
         <f t="shared" ref="K12" si="1">+AC7</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="5">
         <v>0.01</v>
       </c>
-      <c r="T12">
-        <v>0.4</v>
-      </c>
       <c r="U12">
-        <v>0.1</v>
-      </c>
-      <c r="W12">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0.05</v>
       </c>
       <c r="X12">
-        <v>1E-3</v>
-      </c>
-      <c r="Z12">
-        <v>0.9</v>
+        <v>1</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0.03</v>
       </c>
       <c r="AA12">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="1">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="AD12">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="F13">
         <f>+F12*G12*H12</f>
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="J13">
         <f>+J12*K12</f>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Q13" s="1">
         <f>+B13+F13+J13</f>
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="S13" s="2">
         <f>+T13+W13+Z13+AC13</f>
-        <v>0.14000000000000001</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="T13">
         <f>+T12*U12</f>
-        <v>4.0000000000000008E-2</v>
+        <v>0.01</v>
       </c>
       <c r="W13">
         <f>+W12*X12</f>
-        <v>5.0000000000000001E-4</v>
+        <v>0.05</v>
       </c>
       <c r="Z13">
         <f>+Z12*AA12</f>
-        <v>9.0000000000000011E-2</v>
+        <v>0.03</v>
       </c>
       <c r="AC13">
         <f>+AC12*AD12</f>
-        <v>9.4999999999999998E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -780,7 +792,7 @@
       <c r="F16" t="s">
         <v>10</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="U16" t="s">
@@ -789,7 +801,7 @@
       <c r="V16" t="s">
         <v>7</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="X16" t="s">
@@ -799,60 +811,60 @@
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B17">
         <f>+Z12</f>
-        <v>0.9</v>
+        <v>0.03</v>
       </c>
       <c r="C17">
         <f t="shared" ref="C17" si="2">+AA12</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <f>+AC12</f>
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="F17">
         <f t="shared" ref="F17" si="3">+AD12</f>
-        <v>0.01</v>
-      </c>
-      <c r="T17">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0.02</v>
       </c>
       <c r="U17">
-        <v>0.01</v>
-      </c>
-      <c r="W17">
-        <v>49.5</v>
+        <v>1</v>
+      </c>
+      <c r="W17" s="5">
+        <v>0.02</v>
       </c>
       <c r="X17">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>+B17*C17</f>
-        <v>9.0000000000000011E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E18">
         <f>+E17*F17</f>
-        <v>9.4999999999999998E-3</v>
+        <v>0.01</v>
       </c>
       <c r="Q18" s="1">
         <f>+B18+E18</f>
-        <v>9.9500000000000005E-2</v>
+        <v>0.04</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="S18" s="2">
         <f>+T18+W18</f>
-        <v>9.9500000000000005E-2</v>
+        <v>0.04</v>
       </c>
       <c r="T18">
         <f>+T17*U17</f>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="W18">
         <f>+W17*X17</f>
-        <v>4.9500000000000002E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -912,7 +924,7 @@
       <c r="P21" t="s">
         <v>13</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="U21" t="s">
@@ -922,11 +934,11 @@
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B22">
         <f>+T7</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C22">
         <f t="shared" ref="C22:D22" si="4">+U7</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
@@ -934,67 +946,67 @@
       </c>
       <c r="F22">
         <f>+T12</f>
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
       <c r="G22">
         <f t="shared" ref="G22" si="5">+U12</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <f>+W12</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22" si="6">+X12</f>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <f>+T17</f>
-        <v>5</v>
+        <v>0.02</v>
       </c>
       <c r="M22">
         <f t="shared" ref="M22" si="7">+U17</f>
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <f>+W17</f>
-        <v>49.5</v>
+        <v>0.02</v>
       </c>
       <c r="P22">
         <f t="shared" ref="P22" si="8">+X17</f>
-        <v>1E-3</v>
-      </c>
-      <c r="T22">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0.15</v>
       </c>
       <c r="U22">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B23">
         <f>+B22*C22*D22</f>
-        <v>1.0000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F23">
         <f>+F22*G22</f>
-        <v>4.0000000000000008E-2</v>
+        <v>0.01</v>
       </c>
       <c r="I23">
         <f>+I22*J22</f>
-        <v>5.0000000000000001E-4</v>
+        <v>0.05</v>
       </c>
       <c r="L23">
         <f>+L22*M22</f>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="O23">
         <f>+O22*P22</f>
-        <v>4.9500000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="Q23" s="1">
         <f>+B23+F23+I23+O23+L23</f>
-        <v>0.15000000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>4</v>
